--- a/ML/ML_files/2014_OCT.xlsx
+++ b/ML/ML_files/2014_OCT.xlsx
@@ -456,7 +456,7 @@
         <v>8848</v>
       </c>
       <c r="G2">
-        <v>34.64059674502712</v>
+        <v>34.64059674502713</v>
       </c>
       <c r="H2">
         <v>61839</v>
@@ -640,7 +640,7 @@
         <v>34520</v>
       </c>
       <c r="D6">
-        <v>122.2740440324449</v>
+        <v>122.274044032445</v>
       </c>
       <c r="E6">
         <v>4697</v>
@@ -950,7 +950,7 @@
         <v>67552</v>
       </c>
       <c r="D13">
-        <v>53.27895547134059</v>
+        <v>53.2789554713406</v>
       </c>
       <c r="E13">
         <v>2907</v>
@@ -1072,7 +1072,7 @@
         <v>1576</v>
       </c>
       <c r="M15">
-        <v>48.28680203045685</v>
+        <v>48.28680203045686</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -1263,7 +1263,7 @@
         <v>52053</v>
       </c>
       <c r="G20">
-        <v>90.67681017424547</v>
+        <v>90.67681017424548</v>
       </c>
       <c r="H20">
         <v>332329</v>
@@ -1490,7 +1490,7 @@
         <v>4716</v>
       </c>
       <c r="G25">
-        <v>193.0873621713316</v>
+        <v>193.0873621713317</v>
       </c>
       <c r="H25">
         <v>63999</v>
@@ -1674,7 +1674,7 @@
         <v>53386</v>
       </c>
       <c r="G29">
-        <v>58.70078297681039</v>
+        <v>58.7007829768104</v>
       </c>
       <c r="H29">
         <v>228577</v>
@@ -1836,7 +1836,7 @@
         <v>14671</v>
       </c>
       <c r="M32">
-        <v>11.26712562197532</v>
+        <v>11.26712562197533</v>
       </c>
       <c r="N32">
         <v>131</v>
@@ -2005,7 +2005,7 @@
         <v>60485</v>
       </c>
       <c r="D36">
-        <v>125.158303711664</v>
+        <v>125.1583037116641</v>
       </c>
       <c r="E36">
         <v>2988</v>
@@ -2014,7 +2014,7 @@
         <v>623</v>
       </c>
       <c r="G36">
-        <v>479.6147672552167</v>
+        <v>479.6147672552168</v>
       </c>
       <c r="H36">
         <v>75702</v>
@@ -2023,7 +2023,7 @@
         <v>60485</v>
       </c>
       <c r="J36">
-        <v>125.158303711664</v>
+        <v>125.1583037116641</v>
       </c>
       <c r="K36">
         <v>56925</v>
@@ -2103,7 +2103,7 @@
         <v>594579</v>
       </c>
       <c r="D38">
-        <v>156.6091301576409</v>
+        <v>156.609130157641</v>
       </c>
       <c r="E38">
         <v>133545</v>
@@ -2256,7 +2256,7 @@
         <v>289</v>
       </c>
       <c r="G41">
-        <v>256.0553633217993</v>
+        <v>256.0553633217994</v>
       </c>
       <c r="H41">
         <v>6509</v>
@@ -2345,7 +2345,7 @@
         <v>61490</v>
       </c>
       <c r="D43">
-        <v>97.16701902748414</v>
+        <v>97.16701902748415</v>
       </c>
       <c r="E43">
         <v>11925</v>
@@ -2372,7 +2372,7 @@
         <v>61490</v>
       </c>
       <c r="M43">
-        <v>97.16701902748414</v>
+        <v>97.16701902748415</v>
       </c>
       <c r="N43">
         <v>44</v>
@@ -2599,7 +2599,7 @@
         <v>208620</v>
       </c>
       <c r="M48">
-        <v>126.3268143035183</v>
+        <v>126.3268143035184</v>
       </c>
       <c r="N48">
         <v>82</v>
@@ -4462,7 +4462,7 @@
         <v>759278</v>
       </c>
       <c r="J93">
-        <v>45.70934493031537</v>
+        <v>45.70934493031538</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>4196</v>
       </c>
       <c r="G95">
-        <v>353.5510009532888</v>
+        <v>353.5510009532889</v>
       </c>
       <c r="H95">
         <v>67912</v>
@@ -4662,7 +4662,7 @@
         <v>24680893</v>
       </c>
       <c r="D98">
-        <v>109.413816590834</v>
+        <v>109.4138165908341</v>
       </c>
       <c r="E98">
         <v>2363502</v>
@@ -4806,7 +4806,7 @@
         <v>28119368</v>
       </c>
       <c r="D101">
-        <v>103.5717196773412</v>
+        <v>103.5717196773413</v>
       </c>
       <c r="E101">
         <v>3184475</v>
@@ -4864,7 +4864,7 @@
         <v>256204</v>
       </c>
       <c r="G102">
-        <v>138.3499086665313</v>
+        <v>138.3499086665314</v>
       </c>
       <c r="H102">
         <v>3059009</v>
@@ -5005,7 +5005,7 @@
         <v>7821425</v>
       </c>
       <c r="J105">
-        <v>110.0007735163349</v>
+        <v>110.000773516335</v>
       </c>
       <c r="K105">
         <v>3683494</v>
@@ -5153,7 +5153,7 @@
         <v>3060350</v>
       </c>
       <c r="J108">
-        <v>74.54474161452121</v>
+        <v>74.54474161452122</v>
       </c>
       <c r="K108">
         <v>1737986</v>
@@ -5620,7 +5620,7 @@
         <v>386935</v>
       </c>
       <c r="G118">
-        <v>88.75418351919573</v>
+        <v>88.75418351919574</v>
       </c>
       <c r="H118">
         <v>4270870</v>
@@ -5915,7 +5915,7 @@
         <v>1464998</v>
       </c>
       <c r="J124">
-        <v>170.9224859010046</v>
+        <v>170.9224859010047</v>
       </c>
       <c r="K124">
         <v>255953</v>
@@ -6143,7 +6143,7 @@
         <v>321</v>
       </c>
       <c r="G130">
-        <v>8723.364485981308</v>
+        <v>8723.364485981309</v>
       </c>
       <c r="H130">
         <v>247422</v>
@@ -6180,7 +6180,7 @@
         <v>160157</v>
       </c>
       <c r="D131">
-        <v>79.61375400388368</v>
+        <v>79.61375400388369</v>
       </c>
       <c r="E131">
         <v>11109</v>
@@ -6198,7 +6198,7 @@
         <v>160157</v>
       </c>
       <c r="J131">
-        <v>79.61375400388368</v>
+        <v>79.61375400388369</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>810133</v>
       </c>
       <c r="D134">
-        <v>0.09023209769260108</v>
+        <v>0.09023209769260109</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6339,7 +6339,7 @@
         <v>713260</v>
       </c>
       <c r="J134">
-        <v>148.5029302077783</v>
+        <v>148.5029302077784</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -6872,7 +6872,7 @@
         <v>1537437</v>
       </c>
       <c r="J145">
-        <v>167.1622967315083</v>
+        <v>167.1622967315084</v>
       </c>
       <c r="K145">
         <v>57975</v>
@@ -7255,7 +7255,7 @@
         <v>747257</v>
       </c>
       <c r="D156">
-        <v>148.6623745244273</v>
+        <v>148.6623745244274</v>
       </c>
       <c r="E156">
         <v>113334</v>
@@ -7387,7 +7387,7 @@
         <v>13087</v>
       </c>
       <c r="D159">
-        <v>998.9608007946817</v>
+        <v>998.9608007946818</v>
       </c>
       <c r="E159">
         <v>12145</v>
@@ -7939,7 +7939,7 @@
         <v>1790624</v>
       </c>
       <c r="D174">
-        <v>145.6542523723573</v>
+        <v>145.6542523723574</v>
       </c>
       <c r="E174">
         <v>300750</v>
@@ -8179,7 +8179,7 @@
         <v>742658</v>
       </c>
       <c r="D180">
-        <v>61.5431329090914</v>
+        <v>61.54313290909141</v>
       </c>
       <c r="E180">
         <v>135896</v>
@@ -8765,7 +8765,7 @@
         <v>950</v>
       </c>
       <c r="G193">
-        <v>32.63157894736842</v>
+        <v>32.63157894736843</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>14571174</v>
       </c>
       <c r="M200">
-        <v>100.5984967305997</v>
+        <v>100.5984967305998</v>
       </c>
       <c r="N200">
         <v>448</v>
@@ -9125,7 +9125,7 @@
         <v>5177814</v>
       </c>
       <c r="D202">
-        <v>108.3840400601489</v>
+        <v>108.384040060149</v>
       </c>
       <c r="E202">
         <v>609159</v>
@@ -9143,7 +9143,7 @@
         <v>5177814</v>
       </c>
       <c r="J202">
-        <v>108.3840400601489</v>
+        <v>108.384040060149</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -9666,7 +9666,7 @@
         <v>1400153</v>
       </c>
       <c r="D219">
-        <v>94.51709920272999</v>
+        <v>94.51709920273</v>
       </c>
       <c r="E219">
         <v>127646</v>
@@ -9684,7 +9684,7 @@
         <v>1400153</v>
       </c>
       <c r="J219">
-        <v>94.51709920272999</v>
+        <v>94.51709920273</v>
       </c>
       <c r="K219">
         <v>306970</v>
